--- a/OptForce_bdoh/OutputsFindMustL/MustL.xlsx
+++ b/OptForce_bdoh/OutputsFindMustL/MustL.xlsx
@@ -17,10 +17,10 @@
     <t>PHOSACETYLTRANS-RXN</t>
   </si>
   <si>
-    <t>ACETATEKIN-RXN</t>
+    <t>ALCOHOL-DEHYDROG-RXN</t>
   </si>
   <si>
-    <t>EX_ACET</t>
+    <t>ACETATEKIN-RXN</t>
   </si>
 </sst>
 </file>

--- a/OptForce_bdoh/OutputsFindMustL/MustL.xlsx
+++ b/OptForce_bdoh/OutputsFindMustL/MustL.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>RXN-11811</t>
+  </si>
   <si>
     <t>PHOSACETYLTRANS-RXN</t>
   </si>
@@ -21,6 +24,30 @@
   </si>
   <si>
     <t>ACETATEKIN-RXN</t>
+  </si>
+  <si>
+    <t>butanediol_tx</t>
+  </si>
+  <si>
+    <t>carbon_dioxide_tx</t>
+  </si>
+  <si>
+    <t>ammonia_tx</t>
+  </si>
+  <si>
+    <t>rnf</t>
+  </si>
+  <si>
+    <t>atp_synthase</t>
+  </si>
+  <si>
+    <t>acetaldehyde_oxidoreductase</t>
+  </si>
+  <si>
+    <t>EX_ACET</t>
+  </si>
+  <si>
+    <t>EX_ETOH</t>
   </si>
 </sst>
 </file>
@@ -86,6 +113,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OptForce_bdoh/OutputsFindMustL/MustL.xlsx
+++ b/OptForce_bdoh/OutputsFindMustL/MustL.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>RXN-11811</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>PHOSACETYLTRANS-RXN</t>
   </si>
@@ -24,30 +21,6 @@
   </si>
   <si>
     <t>ACETATEKIN-RXN</t>
-  </si>
-  <si>
-    <t>butanediol_tx</t>
-  </si>
-  <si>
-    <t>carbon_dioxide_tx</t>
-  </si>
-  <si>
-    <t>ammonia_tx</t>
-  </si>
-  <si>
-    <t>rnf</t>
-  </si>
-  <si>
-    <t>atp_synthase</t>
-  </si>
-  <si>
-    <t>acetaldehyde_oxidoreductase</t>
-  </si>
-  <si>
-    <t>EX_ACET</t>
-  </si>
-  <si>
-    <t>EX_ETOH</t>
   </si>
 </sst>
 </file>
@@ -113,51 +86,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
